--- a/2_Semestre/Planilha.xlsx
+++ b/2_Semestre/Planilha.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>Disciplina:</t>
-  </si>
-  <si>
-    <t>COMPUTATIONAL THINKING USING PYTHON</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>RM</t>
   </si>
@@ -84,6 +78,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Computational Thinkink Using Python</t>
+  </si>
+  <si>
+    <t>Disciplina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
   </si>
 </sst>
 </file>
@@ -218,12 +221,10 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,13 +508,13 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.5703125" customWidth="1"/>
     <col min="5" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.28515625" customWidth="1"/>
@@ -528,64 +529,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="E2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -593,7 +596,7 @@
         <v>80002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9">
         <v>6</v>
@@ -623,7 +626,7 @@
         <v>80001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9">
         <v>8</v>
@@ -653,7 +656,7 @@
         <v>80003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="9">
         <v>6.6</v>
@@ -683,7 +686,7 @@
         <v>80004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9">
         <v>9</v>
@@ -713,7 +716,7 @@
         <v>80005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
@@ -740,28 +743,26 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="1">
     <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -776,15 +777,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010093733BADF8A58948836873CA107C0C48" ma:contentTypeVersion="9" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a13a737a3dd64527e2824330fce681cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e56aad7-66ff-45c9-a2f2-d59fdfb8fe8b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="baec3cecdad6af579e89121a79054e20" ns2:_="">
     <xsd:import namespace="3e56aad7-66ff-45c9-a2f2-d59fdfb8fe8b"/>
@@ -962,6 +954,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DF52D32-0E9D-4AB9-9873-6F414F3D2FA1}">
   <ds:schemaRefs>
@@ -972,14 +973,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657E2CA1-DBB8-4A83-AC39-5A9C1C0D1C5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AAEDF7E-9EC7-4A9F-B9EF-3D9254FC74FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -995,4 +988,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657E2CA1-DBB8-4A83-AC39-5A9C1C0D1C5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>